--- a/9 - Neural Networks/ProjectA/NN_Results.xlsx
+++ b/9 - Neural Networks/ProjectA/NN_Results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aris\Documents\Machine Learning Course\2019-20\Εργασίες\Εργασία 7\Project A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giorgos\PycharmProjects\Machine_Learning_MSc_Exe_Repo\9 - Neural Networks\ProjectA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2F5A13-3649-4ED2-9ACB-74E82F798D2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32EB47E-55C3-48BF-AB47-6F06A334E2B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="55">
   <si>
     <t>Hidden layer sizes</t>
   </si>
@@ -81,6 +81,117 @@
   </si>
   <si>
     <t>tanh</t>
+  </si>
+  <si>
+    <t>0.38461538461538464</t>
+  </si>
+  <si>
+    <t>0.19230769230769232</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.2777777777777778</t>
+  </si>
+  <si>
+    <t>0.6153846153846154</t>
+  </si>
+  <si>
+    <t>0.3076923076923077</t>
+  </si>
+  <si>
+    <t>0.380952380952381</t>
+  </si>
+  <si>
+    <t>0.951048951048951</t>
+  </si>
+  <si>
+    <t>0.9532967032967032</t>
+  </si>
+  <si>
+    <t>0.9431818181818181</t>
+  </si>
+  <si>
+    <t>0.94773664700047</t>
+  </si>
+  <si>
+    <t>0.8951048951048951</t>
+  </si>
+  <si>
+    <t>0.8865989645559538</t>
+  </si>
+  <si>
+    <t>0.9011363636363636</t>
+  </si>
+  <si>
+    <t>0.8915187376725838</t>
+  </si>
+  <si>
+    <t>0.9370629370629371</t>
+  </si>
+  <si>
+    <t>0.9348730753225135</t>
+  </si>
+  <si>
+    <t>0.9318181818181819</t>
+  </si>
+  <si>
+    <t>0.9332918675167159</t>
+  </si>
+  <si>
+    <t>No preprocessing</t>
+  </si>
+  <si>
+    <t>PCA(n_components=4)</t>
+  </si>
+  <si>
+    <t>0.9230769230769231</t>
+  </si>
+  <si>
+    <t>0.9199958385351643</t>
+  </si>
+  <si>
+    <t>0.9170454545454545</t>
+  </si>
+  <si>
+    <t>0.9184678380759861</t>
+  </si>
+  <si>
+    <t>0.9440559440559441</t>
+  </si>
+  <si>
+    <t>0.9439203354297694</t>
+  </si>
+  <si>
+    <t>0.9375</t>
+  </si>
+  <si>
+    <t>0.9404910528506034</t>
+  </si>
+  <si>
+    <t>0.965034965034965</t>
+  </si>
+  <si>
+    <t>0.9646275488972118</t>
+  </si>
+  <si>
+    <t>0.9613636363636364</t>
+  </si>
+  <si>
+    <t>0.9629399263981755</t>
+  </si>
+  <si>
+    <t>0.972027972027972</t>
+  </si>
+  <si>
+    <t>0.9738993710691823</t>
+  </si>
+  <si>
+    <t>0.9670454545454545</t>
+  </si>
+  <si>
+    <t>0.9702455264253016</t>
   </si>
 </sst>
 </file>
@@ -124,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -139,6 +250,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -455,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,7 +587,7 @@
     <col min="5" max="5" width="23.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="1" customWidth="1"/>
     <col min="7" max="7" width="21.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.28515625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -504,29 +621,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1">
-        <v>100</v>
-      </c>
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -536,6 +649,18 @@
       </c>
       <c r="E3" s="1">
         <v>100</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -546,21 +671,33 @@
         <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1">
         <v>100</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
+      <c r="A5" s="3">
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
@@ -571,16 +708,28 @@
       <c r="E5" s="1">
         <v>100</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>50</v>
+      <c r="A6" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
@@ -588,13 +737,25 @@
       <c r="E6" s="1">
         <v>100</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>15</v>
+      <c r="A7" s="3">
+        <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -605,11 +766,243 @@
       <c r="E7" s="1">
         <v>100</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1">
+        <v>100</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1">
+        <v>100</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1">
+        <v>100</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1">
+        <v>100</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1">
+        <v>100</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>50</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1">
+        <v>100</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1">
+        <v>100</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A9:I9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A7 D2 D3:D7" numberStoredAsText="1"/>
+    <ignoredError sqref="A8 D3 D4:D8" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>